--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -731,13 +731,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -864,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1415,6 +1415,9 @@
         <is>
           <t>California</t>
         </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1783,9 +1786,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2620,9 +2623,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BMRESP-freight" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1" calcCompleted="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -731,13 +731,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -864,11 +864,11 @@
   </sheetPr>
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1">
@@ -1415,9 +1415,6 @@
         <is>
           <t>California</t>
         </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1786,9 +1783,9 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2623,9 +2620,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="19.28515625" customWidth="1" style="2" min="1" max="1"/>
+    <col width="19.33203125" customWidth="1" style="2" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
